--- a/hardware/openha/BOM.xlsx
+++ b/hardware/openha/BOM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorbenichoux/Dropbox/Documents/Open Audiology - Auduino/Projets/Open HA/hardware/lib/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grger\OneDrive\Documents\GitHub\openha\hardware\openha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41765156-5B1D-5247-B270-9801A7D82E29}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="4320" windowWidth="27640" windowHeight="16940" xr2:uid="{41C21007-1770-1049-AD50-A9BBE124A9F5}"/>
+    <workbookView xWindow="26640" yWindow="4320" windowWidth="27645" windowHeight="16935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +80,6 @@
     <t>http://www.ti.com/product/PCM1774/description</t>
   </si>
   <si>
-    <t>codec</t>
-  </si>
-  <si>
     <t>PCM1774</t>
   </si>
   <si>
@@ -151,12 +147,15 @@
   </si>
   <si>
     <t>BM23FR0.6-6DS-0.35V</t>
+  </si>
+  <si>
+    <t>DAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -501,22 +500,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6C0EDE-C953-3A4D-B7C0-493E99BD9825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="54.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="54.125" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -536,7 +535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -550,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -564,13 +563,13 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -578,18 +577,18 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -598,77 +597,77 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
